--- a/upload_3way/Invoice data.xlsx
+++ b/upload_3way/Invoice data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01934L744\Box\Baijnath Data\Project 2023\Nidhi\file to upload on browser\3way match file upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3B9B00-44A9-49F2-9DCD-0418328B8E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501AB313-0AC1-4678-9CDD-6AB5C63EF2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E2AB541-C0AE-411E-B46D-9E7337E26435}"/>
   </bookViews>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4745ACF-3FFA-45CC-9756-2E32DF3E023C}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
